--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,20 +248,10 @@
     <t>Base</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID</t>
+    <t>SourcePatientInfo.PID3</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base
-</t>
-  </si>
-  <si>
-    <t>type PID</t>
-  </si>
-  <si>
-    <t>SourcePatientInfo.PID.3</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -271,7 +261,7 @@
     <t>Liste des identifiants du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.5</t>
+    <t>SourcePatientInfo.PID5</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -281,55 +271,55 @@
     <t>Nom et prénoms du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.7</t>
+    <t>SourcePatientInfo.PID7</t>
   </si>
   <si>
     <t>Date/heure de naissance du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.8</t>
+    <t>SourcePatientInfo.PID8</t>
   </si>
   <si>
     <t>Sexe du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.11</t>
+    <t>SourcePatientInfo.PID11</t>
   </si>
   <si>
     <t>Adresse du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.13</t>
+    <t>SourcePatientInfo.PID13</t>
   </si>
   <si>
     <t>Téléphone de la résidence du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.14</t>
+    <t>SourcePatientInfo.PID14</t>
   </si>
   <si>
     <t>Téléphone professionnel du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.15</t>
+    <t>SourcePatientInfo.PID15</t>
   </si>
   <si>
     <t>Langue du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.16</t>
+    <t>SourcePatientInfo.PID16</t>
   </si>
   <si>
     <t>Statut marital du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.18</t>
+    <t>SourcePatientInfo.PID18</t>
   </si>
   <si>
     <t>Numéro de compte du patient</t>
   </si>
   <si>
-    <t>SourcePatientInfo.PID.21</t>
+    <t>SourcePatientInfo.PID21</t>
   </si>
   <si>
     <t>Identifiant de la mère du patient</t>
@@ -637,7 +627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -646,8 +636,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -677,7 +667,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="20.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.96875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -906,7 +896,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>78</v>
@@ -981,7 +971,7 @@
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1006,10 +996,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1081,10 +1071,10 @@
         <v>81</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
@@ -1106,10 +1096,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1121,13 +1111,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1181,10 +1171,10 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1195,10 +1185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1221,13 +1211,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1278,7 +1268,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1295,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1321,13 +1311,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1378,7 +1368,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -1395,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1421,13 +1411,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1478,7 +1468,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -1495,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1521,13 +1511,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1578,7 +1568,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -1595,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1621,13 +1611,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1678,7 +1668,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1695,10 +1685,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1721,13 +1711,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1778,7 +1768,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -1795,10 +1785,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1821,13 +1811,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1878,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -1895,10 +1885,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1921,13 +1911,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1978,7 +1968,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -1990,106 +1980,6 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientInfo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
